--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc3_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc3_processed.xlsx
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06097544485294112</v>
+        <v>60.97544485294112</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0072992700729927</v>
+        <v>0.7299270072992701</v>
       </c>
     </row>
   </sheetData>
